--- a/data/BookData.xlsx
+++ b/data/BookData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Punj\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Punj\Documents\Github\Library\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12D2319-8105-473E-A402-4C968CC4B89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C35B5B-F66D-46ED-84D2-F7AD7CA22122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <t>2023-03-03</t>
   </si>
   <si>
-    <t>~/Library/img/book/book.jpg</t>
+    <t>~/img/book/book.jpg</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H2" sqref="H2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
